--- a/CardDB_money101/money101_all_card_addcardu_1125final.xlsx
+++ b/CardDB_money101/money101_all_card_addcardu_1125final.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google雲端硬碟\資料分析師班\專題\credit_card\credit_card\DB104\CardDB_money101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\credit_card\DB104_hau\CardDB_money101\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="346">
   <si>
     <t>銀行</t>
   </si>
@@ -1098,6 +1099,10 @@
   </si>
   <si>
     <t>聯邦銀行世界卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全卡名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1208,7 +1213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1227,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1532,65 +1540,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L317"/>
+  <dimension ref="A1:M317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="str">
+        <f>CONCATENATE(A2,"-",B2)</f>
+        <v>三信銀行- VISA白金卡</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1619,23 +1631,27 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE(A3,"-",B3)</f>
+        <v>上海商銀- 簡單卡</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.01</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>0.02</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
@@ -1657,23 +1673,27 @@
       <c r="L3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>上海商銀- 小小兵Bello回饋卡</v>
+      </c>
+      <c r="D4" s="5">
         <v>1.234E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>2.2339999999999999E-2</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
@@ -1695,16 +1715,20 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>上海商銀- TeresaCard</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1728,27 +1752,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>0.02</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.01</v>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>土地銀行- JCB一卡通聯名晶緻卡</v>
       </c>
       <c r="D6" s="5">
         <v>0.01</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1771,16 +1799,20 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>土地銀行- 白金商務卡</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1809,16 +1841,20 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>140</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>土地銀行- 國際信用卡</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1847,16 +1883,20 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 雙幣商務卡</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1885,23 +1925,27 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 中信商旅鈦金卡</v>
+      </c>
+      <c r="D10" s="5">
         <v>0.01</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
@@ -1923,16 +1967,20 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 現金回饋鈦金卡</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1961,16 +2009,20 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- TAIPEI 101 夜光聯名卡</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1999,16 +2051,20 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- Global Mall 聯名卡</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -2029,24 +2085,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>0.4</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 寰遊美國運通卡</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2075,16 +2135,20 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>161</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- LINE Pay卡</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2113,16 +2177,20 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>176</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- iPlan卡</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2151,16 +2219,20 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>190</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 中信兄弟聯名卡</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2189,16 +2261,20 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- Yahoo聯名卡</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
@@ -2222,21 +2298,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <v>0.06</v>
       </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 秀泰聯名卡</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -2257,24 +2337,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
         <v>0.18</v>
       </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>199</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 中華電信聯名白金卡</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2303,16 +2387,20 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>201</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 蘭城新月廣場聯名卡</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2341,16 +2429,20 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>217</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 南紡購物中心聯名卡</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2379,16 +2471,20 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>228</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 享想生活卡</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2409,24 +2505,28 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0.18</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>258</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 中油VIP聯名卡</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2455,16 +2555,20 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>259</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- MUJI無印良品聯名卡</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2493,16 +2597,20 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="5">
-        <v>0</v>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 酷玩卡</v>
       </c>
       <c r="D26" s="5">
         <v>0</v>
@@ -2523,24 +2631,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <v>0.37</v>
       </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
       <c r="L26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>265</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 勤美天地聯名晶緻卡</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2569,16 +2681,20 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>266</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 漢神百貨聯名卡</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2607,16 +2723,20 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>267</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 紅利御璽卡</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2645,16 +2765,20 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>268</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 大葉高島屋百貨聯名卡</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2683,31 +2807,35 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 大中華攜手飛聯名卡</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
       </c>
       <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
         <f>1/22</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <f>1/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -2723,31 +2851,35 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>274</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- ANA晶緻聯名卡</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -2763,16 +2895,20 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- 鼎極卡</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2801,31 +2937,35 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>292</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託- ANA極緻聯名卡</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
@@ -2841,16 +2981,20 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="5">
-        <v>0</v>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託-LEXUS聯名卡</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
@@ -2868,27 +3012,31 @@
         <v>0</v>
       </c>
       <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
         <v>4</v>
       </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
       <c r="K35" s="5">
         <v>0</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>321</v>
       </c>
-      <c r="C36" s="5">
-        <v>0</v>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>中國信託-中國信託寰遊美國運通卡AMEX_金卡</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
@@ -2915,25 +3063,29 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 鑽金卡</v>
+      </c>
+      <c r="D37" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
@@ -2955,16 +3107,20 @@
       <c r="L37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="5">
-        <v>0</v>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 鑽金 icash 聯名卡</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
@@ -2988,28 +3144,32 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
         <v>0.03</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- Wi-Ho!Online聯名卡</v>
+      </c>
+      <c r="D39" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
@@ -3031,16 +3191,20 @@
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>62</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 鑽金一卡通聯名卡</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3069,16 +3233,20 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 富貴無限卡</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3107,16 +3275,20 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- iCash樂享晶緻卡</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3145,16 +3317,20 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
       </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- iPASS現賺御璽卡</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3183,16 +3359,20 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 藝術白金卡</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3221,16 +3401,20 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>115</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 世界卡</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3259,16 +3443,20 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>164</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 愛PASS鈦金卡</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3297,16 +3485,20 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="5">
-        <v>0</v>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 分享卡</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
@@ -3333,25 +3525,29 @@
         <v>0</v>
       </c>
       <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 樂遊卡</v>
+      </c>
+      <c r="D48" s="5">
         <v>0.01</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>0.02</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
@@ -3373,16 +3569,20 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>225</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 新世代卡</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3411,16 +3611,20 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>229</v>
       </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- Life卡</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3449,16 +3653,20 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>230</v>
       </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行- 一番卡</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3487,16 +3695,20 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>322</v>
       </c>
-      <c r="C52" s="5">
-        <v>0</v>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行-元大Life卡JCB晶緻卡</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -3523,18 +3735,22 @@
         <v>0</v>
       </c>
       <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>333</v>
       </c>
-      <c r="C53" s="5">
-        <v>0</v>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>元大銀行-指定卡</v>
       </c>
       <c r="D53" s="5">
         <v>0</v>
@@ -3555,31 +3771,35 @@
         <v>0</v>
       </c>
       <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
         <v>0.27</v>
       </c>
-      <c r="K53" s="5">
-        <v>0</v>
-      </c>
       <c r="L53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>日盛銀行- 無限卡</v>
+      </c>
+      <c r="D54" s="5">
         <v>0.01</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
       <c r="F54">
         <v>0</v>
       </c>
@@ -3601,23 +3821,27 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>日盛銀行- 商務御璽卡</v>
+      </c>
+      <c r="D55" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
@@ -3639,16 +3863,20 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="5">
-        <v>0</v>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>日盛銀行- GOGO卡</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
@@ -3675,18 +3903,22 @@
         <v>0</v>
       </c>
       <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>153</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>日盛銀行- ALL PASS卡</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3715,16 +3947,20 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>王道銀行- cama café聯名卡</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3753,16 +3989,20 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
       </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>王道銀行- 簽帳金融卡</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3791,16 +4031,20 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>王道銀行- FunNow聯名卡</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3829,16 +4073,20 @@
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>王道銀行- 公益認同卡</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3867,22 +4115,26 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="5">
-        <v>0.01</v>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>台中商銀- JCB哆啦A夢晶緻卡</v>
       </c>
       <c r="D62" s="5">
         <v>0.01</v>
       </c>
-      <c r="E62">
-        <v>0</v>
+      <c r="E62" s="5">
+        <v>0.01</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3905,16 +4157,20 @@
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
         <v>174</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>台中商銀- 媽祖白金卡</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3943,16 +4199,20 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>47</v>
       </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>台北富邦- J卡</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3981,23 +4241,27 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>台北富邦- IMPERIAL尊御世界卡</v>
+      </c>
+      <c r="D65" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E65" s="5">
-        <v>0</v>
-      </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
@@ -4008,27 +4272,31 @@
         <v>0</v>
       </c>
       <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
         <v>6</v>
       </c>
-      <c r="J65" s="5">
-        <v>0</v>
-      </c>
       <c r="K65" s="5">
         <v>0</v>
       </c>
       <c r="L65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="5">
-        <v>0</v>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>台北富邦- 數位生活卡</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
@@ -4052,27 +4320,31 @@
         <v>0</v>
       </c>
       <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
         <v>0.02</v>
       </c>
-      <c r="L66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" si="1">CONCATENATE(A67,"-",B67)</f>
+        <v>台北富邦- 鑽保卡</v>
       </c>
       <c r="D67" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
@@ -4093,18 +4365,22 @@
         <v>0</v>
       </c>
       <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
       </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 財神卡</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4133,16 +4409,20 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="C69">
-        <v>0</v>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 台灣大哥大悠遊聯名卡</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4171,16 +4451,20 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
         <v>250</v>
       </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 采盟聯名卡</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4209,16 +4493,20 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>251</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- DHC聯名卡</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4247,16 +4535,20 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>252</v>
       </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 福華聯名卡</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4285,16 +4577,20 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
         <v>253</v>
       </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 國賓大飯店聯名卡</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4323,16 +4619,20 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
         <v>254</v>
       </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 麗嬰房聯名卡</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4361,16 +4661,20 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>257</v>
       </c>
-      <c r="C75">
-        <v>0</v>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 富邦悍將悠遊聯名卡</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4399,16 +4703,20 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>260</v>
       </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 廣三SOGO聯名卡</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4437,16 +4745,20 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>261</v>
       </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 富利生活系列卡</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4475,16 +4787,20 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>262</v>
       </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 台茂聯名卡</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4513,31 +4829,35 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
       </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>台北富邦- 商務卡</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
         <f>1/50</f>
         <v>0.02</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <f>1/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
@@ -4553,23 +4873,27 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B80" t="s">
         <v>334</v>
       </c>
-      <c r="C80" s="5">
-        <v>0</v>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行-雙幣卡</v>
       </c>
       <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
@@ -4591,23 +4915,27 @@
       <c r="L80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- FlyGo卡</v>
+      </c>
+      <c r="D81" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="E81" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E81" s="5">
-        <v>0</v>
-      </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
@@ -4629,16 +4957,20 @@
       <c r="L81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
       </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 商務卡</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4667,16 +4999,20 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="5">
-        <v>0</v>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- @GoGo iCash御璽卡</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
@@ -4700,28 +5036,32 @@
         <v>0</v>
       </c>
       <c r="K83" s="5">
+        <v>0</v>
+      </c>
+      <c r="L83" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="L83" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 遠傳friDay聯名卡</v>
+      </c>
+      <c r="D84" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D84" s="5">
+      <c r="E84" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
@@ -4743,16 +5083,20 @@
       <c r="L84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 台新街口聯名卡</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4781,16 +5125,20 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 亞洲無限卡</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4819,16 +5167,20 @@
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
       </c>
-      <c r="C87">
-        <v>0</v>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 環球無限卡</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4857,23 +5209,27 @@
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 昇恆昌聯名卡</v>
+      </c>
+      <c r="D88" s="5">
         <v>0.01</v>
       </c>
-      <c r="D88" s="5">
+      <c r="E88" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E88" s="5">
-        <v>0</v>
-      </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
@@ -4884,27 +5240,31 @@
         <v>0</v>
       </c>
       <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
         <v>6</v>
       </c>
-      <c r="J88" s="5">
-        <v>0</v>
-      </c>
       <c r="K88" s="5">
         <v>0</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
       </c>
-      <c r="C89">
-        <v>0</v>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 燦坤生活聯名卡</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4933,16 +5293,20 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="5">
-        <v>0</v>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 三商美邦人壽聯名卡</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
@@ -4969,18 +5333,22 @@
         <v>0</v>
       </c>
       <c r="L90" s="5">
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="5">
-        <v>0</v>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 太陽卡</v>
       </c>
       <c r="D91" s="5">
         <v>0</v>
@@ -5004,21 +5372,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="5">
+        <v>0</v>
+      </c>
+      <c r="L91" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="L91" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
       <c r="B92" t="s">
         <v>145</v>
       </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 玫瑰卡</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5047,16 +5419,20 @@
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
       <c r="B93" t="s">
         <v>146</v>
       </c>
-      <c r="C93">
-        <v>0</v>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- ETC聯名卡</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5085,16 +5461,20 @@
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
       <c r="B94" t="s">
         <v>154</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 賓士smart聯名卡</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5123,16 +5503,20 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
       <c r="B95" t="s">
         <v>156</v>
       </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 全家Fish悠遊聯名卡</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5161,16 +5545,20 @@
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
       <c r="B96" t="s">
         <v>78</v>
       </c>
-      <c r="C96">
-        <v>0</v>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 新光三越聯名卡</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5199,16 +5587,20 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>167</v>
       </c>
-      <c r="C97">
-        <v>0</v>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 大潤發/大買家聯名卡</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5237,16 +5629,20 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>204</v>
       </c>
-      <c r="C98">
-        <v>0</v>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 國泰航空鈦金卡</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5275,16 +5671,20 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
       <c r="B99" t="s">
         <v>218</v>
       </c>
-      <c r="C99">
-        <v>0</v>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- PayEasy聯名卡</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5313,16 +5713,20 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
       <c r="B100" t="s">
         <v>263</v>
       </c>
-      <c r="C100">
-        <v>0</v>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 幸福加值卡</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5351,31 +5755,35 @@
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
       <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="C101">
-        <v>0</v>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 國泰航空翱翔鈦金卡</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
         <f>1/25</f>
         <v>0.04</v>
       </c>
-      <c r="F101" s="5">
+      <c r="G101" s="5">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
@@ -5391,31 +5799,35 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
       <c r="B102" t="s">
         <v>297</v>
       </c>
-      <c r="C102">
-        <v>0</v>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行- 國泰航空世界卡</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
         <f>1/22</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="F102" s="5">
+      <c r="G102" s="5">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
       <c r="H102">
         <v>0</v>
       </c>
@@ -5431,23 +5843,27 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>336</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>台新銀行-台新財富無限卡</v>
+      </c>
+      <c r="D103" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D103" s="5">
+      <c r="E103" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E103" s="5">
-        <v>0</v>
-      </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
@@ -5467,18 +5883,22 @@
         <v>0</v>
       </c>
       <c r="L103" s="5">
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>25</v>
       </c>
       <c r="B104" t="s">
         <v>81</v>
       </c>
-      <c r="C104" s="5">
-        <v>0</v>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>台灣樂天- 樂天信用卡</v>
       </c>
       <c r="D104" s="5">
         <v>0</v>
@@ -5502,28 +5922,32 @@
         <v>0</v>
       </c>
       <c r="K104" s="5">
+        <v>0</v>
+      </c>
+      <c r="L104" s="5">
         <v>0.01</v>
       </c>
-      <c r="L104" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
       <c r="B105" t="s">
         <v>42</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- DAWHO現金回饋信用卡</v>
+      </c>
+      <c r="D105" s="5">
         <v>0.02</v>
       </c>
-      <c r="D105" s="5">
+      <c r="E105" s="5">
         <v>0.03</v>
       </c>
-      <c r="E105" s="5">
-        <v>0</v>
-      </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
@@ -5545,23 +5969,27 @@
       <c r="L105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 現金回饋卡</v>
+      </c>
+      <c r="D106" s="5">
         <v>0.01</v>
       </c>
-      <c r="D106" s="5">
+      <c r="E106" s="5">
         <v>0.02</v>
       </c>
-      <c r="E106" s="5">
-        <v>0</v>
-      </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
@@ -5583,16 +6011,20 @@
       <c r="L106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
       </c>
-      <c r="C107">
-        <v>0</v>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 雙幣卡</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5621,16 +6053,20 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>68</v>
       </c>
-      <c r="C108" s="5">
-        <v>0</v>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 無限卡</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
@@ -5657,18 +6093,22 @@
         <v>0</v>
       </c>
       <c r="L108" s="5">
+        <v>0</v>
+      </c>
+      <c r="M108" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>93</v>
       </c>
-      <c r="C109">
-        <v>0</v>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 夢行卡</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5697,22 +6137,26 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="5">
-        <v>1.2E-2</v>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- Prestige美國運通卡</v>
       </c>
       <c r="D110" s="5">
         <v>1.2E-2</v>
       </c>
       <c r="E110" s="5">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -5735,16 +6179,20 @@
       <c r="L110" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>122</v>
       </c>
-      <c r="C111">
-        <v>0</v>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- Me Card</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5773,16 +6221,20 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" t="s">
         <v>123</v>
       </c>
-      <c r="C112">
-        <v>0</v>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 鈦豐卡</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5811,16 +6263,20 @@
       <c r="L112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>160</v>
       </c>
-      <c r="C113">
-        <v>0</v>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- VOGUE聯名卡</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5849,16 +6305,20 @@
       <c r="L113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>212</v>
       </c>
-      <c r="C114">
-        <v>0</v>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- SPORT卡</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5887,16 +6347,20 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>112</v>
       </c>
-      <c r="C115">
-        <v>0</v>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 漢神巨蛋聯名卡</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -5925,16 +6389,20 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>255</v>
       </c>
-      <c r="C116">
-        <v>0</v>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 美麗華卡</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5963,16 +6431,20 @@
       <c r="L116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>280</v>
       </c>
-      <c r="C117" s="5">
-        <v>0</v>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 保倍卡</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
@@ -5999,18 +6471,22 @@
         <v>0</v>
       </c>
       <c r="L117" s="5">
+        <v>0</v>
+      </c>
+      <c r="M117" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>284</v>
       </c>
-      <c r="C118">
-        <v>0</v>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 悠遊HiCard</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6039,16 +6515,20 @@
       <c r="L118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>285</v>
       </c>
-      <c r="C119">
-        <v>0</v>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- 科士威聯名卡</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6077,16 +6557,20 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>288</v>
       </c>
-      <c r="C120">
-        <v>0</v>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>永豐銀行- MITSUI OUTLET PARK卡</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6115,16 +6599,20 @@
       <c r="L120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B121" t="s">
         <v>337</v>
       </c>
-      <c r="C121" s="5">
-        <v>0</v>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山全卡-Debit金融卡</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
@@ -6136,14 +6624,14 @@
         <v>0</v>
       </c>
       <c r="G121" s="5">
+        <v>0</v>
+      </c>
+      <c r="H121" s="5">
         <v>1</v>
       </c>
-      <c r="H121" s="5">
+      <c r="I121" s="5">
         <v>0.7</v>
       </c>
-      <c r="I121" s="5">
-        <v>0</v>
-      </c>
       <c r="J121" s="5">
         <v>0</v>
       </c>
@@ -6153,23 +6641,27 @@
       <c r="L121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>27</v>
       </c>
       <c r="B122" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 雙幣信用卡</v>
+      </c>
+      <c r="D122" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D122" s="5">
+      <c r="E122" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E122" s="5">
-        <v>0</v>
-      </c>
       <c r="F122" s="5">
         <v>0</v>
       </c>
@@ -6191,16 +6683,20 @@
       <c r="L122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
       <c r="B123" t="s">
         <v>102</v>
       </c>
-      <c r="C123">
-        <v>0</v>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- U Bear信用卡</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6229,16 +6725,20 @@
       <c r="L123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
       <c r="B124" t="s">
         <v>112</v>
       </c>
-      <c r="C124">
-        <v>0</v>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 漢神巨蛋聯名卡</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6267,16 +6767,20 @@
       <c r="L124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
       <c r="B125" t="s">
         <v>114</v>
       </c>
-      <c r="C125">
-        <v>0</v>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 玉山世界卡</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -6305,16 +6809,20 @@
       <c r="L125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>27</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-      <c r="C126">
-        <v>0</v>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 幸運鈦金卡</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6343,16 +6851,20 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-      <c r="C127">
-        <v>0</v>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 幸運PLUS鈦金卡</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6381,16 +6893,20 @@
       <c r="L127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>27</v>
       </c>
       <c r="B128" t="s">
         <v>141</v>
       </c>
-      <c r="C128">
-        <v>0</v>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 家樂福悠遊聯名卡</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6419,16 +6935,20 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>27</v>
       </c>
       <c r="B129" t="s">
         <v>142</v>
       </c>
-      <c r="C129">
-        <v>0</v>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- 家樂福icash聯名卡</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6457,16 +6977,20 @@
       <c r="L129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
       <c r="B130" t="s">
         <v>155</v>
       </c>
-      <c r="C130">
-        <v>0</v>
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v>玉山銀行- eTag悠遊聯名卡</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6495,16 +7019,20 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>27</v>
       </c>
       <c r="B131" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="5">
-        <v>0</v>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="2">CONCATENATE(A131,"-",B131)</f>
+        <v>玉山銀行- iCash聯名卡</v>
       </c>
       <c r="D131" s="5">
         <v>0</v>
@@ -6528,21 +7056,25 @@
         <v>0</v>
       </c>
       <c r="K131" s="5">
+        <v>0</v>
+      </c>
+      <c r="L131" s="5">
         <v>0.05</v>
       </c>
-      <c r="L131" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>27</v>
       </c>
       <c r="B132" t="s">
         <v>77</v>
       </c>
-      <c r="C132">
-        <v>0</v>
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 商務御璽卡</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6571,16 +7103,20 @@
       <c r="L132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
       <c r="B133" t="s">
         <v>172</v>
       </c>
-      <c r="C133">
-        <v>0</v>
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 佐登妮絲聯名卡</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -6609,16 +7145,20 @@
       <c r="L133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>27</v>
       </c>
       <c r="B134" t="s">
         <v>137</v>
       </c>
-      <c r="C134">
-        <v>0</v>
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 悠遊聯名卡</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6647,16 +7187,20 @@
       <c r="L134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>27</v>
       </c>
       <c r="B135" t="s">
         <v>177</v>
       </c>
-      <c r="C135" s="5">
-        <v>0</v>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 山隆優油卡</v>
       </c>
       <c r="D135" s="5">
         <v>0</v>
@@ -6668,14 +7212,14 @@
         <v>0</v>
       </c>
       <c r="G135" s="5">
+        <v>0</v>
+      </c>
+      <c r="H135" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H135" s="5">
+      <c r="I135" s="5">
         <v>1.6</v>
       </c>
-      <c r="I135" s="5">
-        <v>0</v>
-      </c>
       <c r="J135" s="5">
         <v>0</v>
       </c>
@@ -6685,16 +7229,20 @@
       <c r="L135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>27</v>
       </c>
       <c r="B136" t="s">
         <v>178</v>
       </c>
-      <c r="C136">
-        <v>0</v>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 統一時代icash聯名卡</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6723,16 +7271,20 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
       <c r="B137" t="s">
         <v>179</v>
       </c>
-      <c r="C137">
-        <v>0</v>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 中友百貨悠遊聯名卡</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6761,16 +7313,20 @@
       <c r="L137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>27</v>
       </c>
       <c r="B138" t="s">
         <v>180</v>
       </c>
-      <c r="C138">
-        <v>0</v>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 全國電子聯名卡</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6799,16 +7355,20 @@
       <c r="L138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>27</v>
       </c>
       <c r="B139" t="s">
         <v>181</v>
       </c>
-      <c r="C139">
-        <v>0</v>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 寶雅悠遊聯名卡</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6837,16 +7397,20 @@
       <c r="L139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
       <c r="B140" t="s">
         <v>182</v>
       </c>
-      <c r="C140">
-        <v>0</v>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 新東陽悠遊聯名卡</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6875,16 +7439,20 @@
       <c r="L140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>27</v>
       </c>
       <c r="B141" t="s">
         <v>183</v>
       </c>
-      <c r="C141">
-        <v>0</v>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- NISSAN悠遊聯名卡</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6913,16 +7481,20 @@
       <c r="L141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>27</v>
       </c>
       <c r="B142" t="s">
         <v>184</v>
       </c>
-      <c r="C142">
-        <v>0</v>
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 賀寶芙悠遊聯名卡</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -6951,16 +7523,20 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>27</v>
       </c>
       <c r="B143" t="s">
         <v>185</v>
       </c>
-      <c r="C143">
-        <v>0</v>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 麗寶悠遊聯名卡</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6989,16 +7565,20 @@
       <c r="L143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>27</v>
       </c>
       <c r="B144" t="s">
         <v>186</v>
       </c>
-      <c r="C144" s="5">
-        <v>0</v>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- Pi 拍錢包信用卡</v>
       </c>
       <c r="D144" s="5">
         <v>0</v>
@@ -7022,21 +7602,25 @@
         <v>0</v>
       </c>
       <c r="K144" s="5">
+        <v>0</v>
+      </c>
+      <c r="L144" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="L144" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
       <c r="B145" t="s">
         <v>187</v>
       </c>
-      <c r="C145" s="5">
-        <v>0</v>
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 南山悠遊聯名卡</v>
       </c>
       <c r="D145" s="5">
         <v>0</v>
@@ -7063,18 +7647,22 @@
         <v>0</v>
       </c>
       <c r="L145" s="5">
+        <v>0</v>
+      </c>
+      <c r="M145" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>27</v>
       </c>
       <c r="B146" t="s">
         <v>188</v>
       </c>
-      <c r="C146">
-        <v>0</v>
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 愛心卡</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -7103,16 +7691,20 @@
       <c r="L146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>27</v>
       </c>
       <c r="B147" t="s">
         <v>213</v>
       </c>
-      <c r="C147">
-        <v>0</v>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- ATT 4 Fun 悠遊聯名卡</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -7141,16 +7733,20 @@
       <c r="L147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>27</v>
       </c>
       <c r="B148" t="s">
         <v>221</v>
       </c>
-      <c r="C148">
-        <v>0</v>
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 耐斯廣場NP聯名卡</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -7179,16 +7775,20 @@
       <c r="L148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
       <c r="B149" t="s">
         <v>281</v>
       </c>
-      <c r="C149">
-        <v>0</v>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 統領百貨悠遊聯名卡</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -7217,16 +7817,20 @@
       <c r="L149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>27</v>
       </c>
       <c r="B150" t="s">
         <v>282</v>
       </c>
-      <c r="C150">
-        <v>0</v>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 華歌爾悠遊聯名卡</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -7255,16 +7859,20 @@
       <c r="L150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
       <c r="B151" t="s">
         <v>302</v>
       </c>
-      <c r="C151">
-        <v>0</v>
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 玉山Only卡</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -7293,16 +7901,20 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>27</v>
       </c>
       <c r="B152" t="s">
         <v>303</v>
       </c>
-      <c r="C152">
-        <v>0</v>
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 弘安藥粧聯名卡</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -7331,16 +7943,20 @@
       <c r="L152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
       <c r="B153" t="s">
         <v>304</v>
       </c>
-      <c r="C153">
-        <v>0</v>
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 臺北南山廣場聯名卡</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -7369,16 +7985,20 @@
       <c r="L153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>27</v>
       </c>
       <c r="B154" t="s">
         <v>305</v>
       </c>
-      <c r="C154">
-        <v>0</v>
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行- 啄木鳥悠遊聯名卡</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -7407,16 +8027,20 @@
       <c r="L154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B155" t="s">
         <v>338</v>
       </c>
-      <c r="C155" s="5">
-        <v>0</v>
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>玉山銀行-公務人員國民旅遊卡</v>
       </c>
       <c r="D155" s="5">
         <v>0</v>
@@ -7443,25 +8067,29 @@
         <v>0</v>
       </c>
       <c r="L155" s="5">
+        <v>0</v>
+      </c>
+      <c r="M155" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>48</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 利多御璽商旅卡</v>
+      </c>
+      <c r="D156" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D156" s="5">
+      <c r="E156" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="E156" s="5">
-        <v>0</v>
-      </c>
       <c r="F156" s="5">
         <v>0</v>
       </c>
@@ -7483,16 +8111,20 @@
       <c r="L156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>85</v>
       </c>
-      <c r="C157">
-        <v>0</v>
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- Gogoro 聯名卡</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7521,16 +8153,20 @@
       <c r="L157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>88</v>
       </c>
-      <c r="C158" s="5">
-        <v>0</v>
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- Mega One 一卡通聯名卡</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -7557,18 +8193,22 @@
         <v>0</v>
       </c>
       <c r="L158" s="5">
+        <v>0</v>
+      </c>
+      <c r="M158" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
       </c>
-      <c r="C159" s="5">
-        <v>0</v>
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- e秒刷鈦金卡</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
@@ -7592,21 +8232,25 @@
         <v>0</v>
       </c>
       <c r="K159" s="5">
+        <v>0</v>
+      </c>
+      <c r="L159" s="5">
         <v>0.04</v>
       </c>
-      <c r="L159" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>115</v>
       </c>
-      <c r="C160">
-        <v>0</v>
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 世界卡</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7635,16 +8279,20 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>139</v>
       </c>
-      <c r="C161">
-        <v>0</v>
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 幸福卡</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7673,16 +8321,20 @@
       <c r="L161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>157</v>
       </c>
-      <c r="C162">
-        <v>0</v>
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 中興保全聯名卡</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -7711,16 +8363,20 @@
       <c r="L162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>137</v>
       </c>
-      <c r="C163">
-        <v>0</v>
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 悠遊聯名卡</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7749,16 +8405,20 @@
       <c r="L163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
       <c r="B164" t="s">
         <v>211</v>
       </c>
-      <c r="C164">
-        <v>0</v>
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 統一7-ELEVEn獅聯名卡</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -7787,16 +8447,20 @@
       <c r="L164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
       <c r="B165" t="s">
         <v>223</v>
       </c>
-      <c r="C165">
-        <v>0</v>
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 原子小金剛卡</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -7825,16 +8489,20 @@
       <c r="L165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>224</v>
       </c>
-      <c r="C166">
-        <v>0</v>
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 生活工場聯名卡</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7863,16 +8531,20 @@
       <c r="L166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
       <c r="B167" t="s">
         <v>283</v>
       </c>
-      <c r="C167">
-        <v>0</v>
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>兆豐銀行- 歐付寶悠遊聯名卡</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7901,22 +8573,26 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
       <c r="B168" t="s">
         <v>71</v>
       </c>
-      <c r="C168" s="5">
-        <v>0.01</v>
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫- 雙幣信用卡</v>
       </c>
       <c r="D168" s="5">
         <v>0.01</v>
       </c>
       <c r="E168" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F168" s="5">
         <v>0</v>
@@ -7939,16 +8615,20 @@
       <c r="L168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
       <c r="B169" t="s">
         <v>97</v>
       </c>
-      <c r="C169">
-        <v>0</v>
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫- JCB悠遊晶緻卡</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7977,22 +8657,26 @@
       <c r="L169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
       <c r="B170" t="s">
         <v>105</v>
       </c>
-      <c r="C170" s="5">
-        <v>0.01</v>
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫- 利high卡</v>
       </c>
       <c r="D170" s="5">
         <v>0.01</v>
       </c>
       <c r="E170" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F170" s="5">
         <v>0</v>
@@ -8015,16 +8699,20 @@
       <c r="L170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
       <c r="B171" t="s">
         <v>106</v>
       </c>
-      <c r="C171" s="5">
-        <v>0</v>
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫- 卡娜赫拉的小動物 icash 聯名卡</v>
       </c>
       <c r="D171" s="5">
         <v>0</v>
@@ -8048,21 +8736,25 @@
         <v>0</v>
       </c>
       <c r="K171" s="5">
+        <v>0</v>
+      </c>
+      <c r="L171" s="5">
         <v>0.03</v>
       </c>
-      <c r="L171" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
       <c r="B172" t="s">
         <v>113</v>
       </c>
-      <c r="C172">
-        <v>0</v>
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫- 漢來美食聯名卡</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -8091,16 +8783,20 @@
       <c r="L172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B173" t="s">
         <v>325</v>
       </c>
-      <c r="C173" s="5">
-        <v>0</v>
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫-icash聯名卡MasterCard鈦金卡</v>
       </c>
       <c r="D173" s="5">
         <v>0</v>
@@ -8124,28 +8820,32 @@
         <v>0</v>
       </c>
       <c r="K173" s="5">
+        <v>0</v>
+      </c>
+      <c r="L173" s="5">
         <v>0.03</v>
       </c>
-      <c r="L173" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B174" t="s">
         <v>339</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫-合作金庫世界卡</v>
+      </c>
+      <c r="D174" s="5">
         <v>0.01</v>
       </c>
-      <c r="D174" s="5">
+      <c r="E174" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E174" s="5">
-        <v>0</v>
-      </c>
       <c r="F174" s="5">
         <v>0</v>
       </c>
@@ -8167,23 +8867,27 @@
       <c r="L174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B175" t="s">
         <v>324</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫-雙幣卡</v>
+      </c>
+      <c r="D175" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D175" s="5">
+      <c r="E175" s="5">
         <v>0.02</v>
       </c>
-      <c r="E175" s="5">
-        <v>0</v>
-      </c>
       <c r="F175" s="5">
         <v>0</v>
       </c>
@@ -8205,16 +8909,20 @@
       <c r="L175" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C176" s="5">
-        <v>0</v>
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>合作金庫-合庫無限卡</v>
       </c>
       <c r="D176" s="5">
         <v>0</v>
@@ -8232,34 +8940,38 @@
         <v>0</v>
       </c>
       <c r="I176" s="5">
+        <v>0</v>
+      </c>
+      <c r="J176" s="5">
         <v>4</v>
       </c>
-      <c r="J176" s="5">
-        <v>0</v>
-      </c>
       <c r="K176" s="5">
         <v>0</v>
       </c>
       <c r="L176" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B177" t="s">
         <v>327</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>合庫鹿港-天后宮認同卡</v>
+      </c>
+      <c r="D177" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D177" s="5">
+      <c r="E177" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E177" s="5">
-        <v>0</v>
-      </c>
       <c r="F177" s="5">
         <v>0</v>
       </c>
@@ -8281,16 +8993,20 @@
       <c r="L177" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>31</v>
       </c>
       <c r="B178" t="s">
         <v>116</v>
       </c>
-      <c r="C178">
-        <v>0</v>
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>安泰銀行- 晶緻卡</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -8319,16 +9035,20 @@
       <c r="L178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>31</v>
       </c>
       <c r="B179" t="s">
         <v>117</v>
       </c>
-      <c r="C179">
-        <v>0</v>
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>安泰銀行- 鈦金卡</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -8357,16 +9077,20 @@
       <c r="L179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>31</v>
       </c>
       <c r="B180" t="s">
         <v>205</v>
       </c>
-      <c r="C180">
-        <v>0</v>
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>安泰銀行- 分期卡</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -8395,23 +9119,27 @@
       <c r="L180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
       <c r="B181" t="s">
         <v>38</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- 現金回饋PLUS卡</v>
+      </c>
+      <c r="D181" s="5">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D181" s="5">
+      <c r="E181" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E181" s="5">
-        <v>0</v>
-      </c>
       <c r="F181" s="5">
         <v>0</v>
       </c>
@@ -8425,24 +9153,28 @@
         <v>0</v>
       </c>
       <c r="J181" s="5">
+        <v>0</v>
+      </c>
+      <c r="K181" s="5">
         <v>0.4</v>
       </c>
-      <c r="K181" s="5">
-        <v>0</v>
-      </c>
       <c r="L181" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>96</v>
       </c>
-      <c r="C182" s="5">
-        <v>0</v>
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- PChome Prime聯名卡</v>
       </c>
       <c r="D182" s="5">
         <v>0</v>
@@ -8466,21 +9198,25 @@
         <v>0</v>
       </c>
       <c r="K182" s="5">
+        <v>0</v>
+      </c>
+      <c r="L182" s="5">
         <v>0.06</v>
       </c>
-      <c r="L182" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>200</v>
       </c>
-      <c r="C183">
-        <v>0</v>
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- 紅利悠遊卡</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -8509,16 +9245,20 @@
       <c r="L183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
       <c r="B184" t="s">
         <v>276</v>
       </c>
-      <c r="C184" s="5">
-        <v>0</v>
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- 新世代花旗饗樂生活悠遊卡</v>
       </c>
       <c r="D184" s="5">
         <v>0</v>
@@ -8539,78 +9279,86 @@
         <v>0</v>
       </c>
       <c r="J184" s="5">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5">
         <v>0.4</v>
       </c>
-      <c r="K184" s="5">
-        <v>0</v>
-      </c>
       <c r="L184" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>278</v>
       </c>
-      <c r="C185" s="5">
-        <v>0</v>
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- 寰旅世界悠遊卡</v>
       </c>
       <c r="D185" s="5">
         <v>0</v>
       </c>
       <c r="E185" s="5">
-        <f>1/20</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F185" s="5">
         <f>1/20</f>
         <v>0.05</v>
       </c>
       <c r="G185" s="5">
-        <v>0</v>
+        <f>1/20</f>
+        <v>0.05</v>
       </c>
       <c r="H185" s="5">
         <v>0</v>
       </c>
       <c r="I185" s="5">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5">
         <v>4</v>
       </c>
-      <c r="J185" s="5">
-        <v>0</v>
-      </c>
       <c r="K185" s="5">
         <v>0</v>
       </c>
       <c r="L185" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>298</v>
       </c>
-      <c r="C186" s="5">
-        <v>0</v>
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- 寰旅尊尚世界悠遊卡</v>
       </c>
       <c r="D186" s="5">
         <v>0</v>
       </c>
       <c r="E186" s="5">
-        <f>1/20</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F186" s="5">
         <f>1/20</f>
         <v>0.05</v>
       </c>
       <c r="G186" s="5">
-        <v>0</v>
+        <f>1/20</f>
+        <v>0.05</v>
       </c>
       <c r="H186" s="5">
         <v>0</v>
@@ -8627,16 +9375,20 @@
       <c r="L186" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>300</v>
       </c>
-      <c r="C187" s="5">
-        <v>0</v>
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行- Citi Prestige</v>
       </c>
       <c r="D187" s="5">
         <v>0</v>
@@ -8654,27 +9406,31 @@
         <v>0</v>
       </c>
       <c r="I187" s="5">
+        <v>0</v>
+      </c>
+      <c r="J187" s="5">
         <v>8</v>
       </c>
-      <c r="J187" s="5">
-        <v>0</v>
-      </c>
       <c r="K187" s="5">
         <v>0</v>
       </c>
       <c r="L187" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B188" t="s">
         <v>329</v>
       </c>
-      <c r="C188" s="5">
-        <v>0</v>
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>花旗銀行-Apple Pay</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
@@ -8686,11 +9442,11 @@
         <v>0</v>
       </c>
       <c r="G188" s="5">
+        <v>0</v>
+      </c>
+      <c r="H188" s="5">
         <v>1</v>
       </c>
-      <c r="H188" s="5">
-        <v>0</v>
-      </c>
       <c r="I188" s="5">
         <v>0</v>
       </c>
@@ -8703,23 +9459,27 @@
       <c r="L188" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>16</v>
       </c>
       <c r="B189" t="s">
         <v>52</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>星展銀行- 炫晶御璽卡</v>
+      </c>
+      <c r="D189" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D189" s="5">
+      <c r="E189" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E189" s="5">
-        <v>0</v>
-      </c>
       <c r="F189" s="5">
         <v>0</v>
       </c>
@@ -8741,16 +9501,20 @@
       <c r="L189" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>16</v>
       </c>
       <c r="B190" t="s">
         <v>101</v>
       </c>
-      <c r="C190">
-        <v>0</v>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>星展銀行- everyday鈦金卡</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8779,31 +9543,35 @@
       <c r="L190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
       <c r="B191" t="s">
         <v>195</v>
       </c>
-      <c r="C191" s="5">
-        <v>0</v>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>星展銀行- 飛行鈦金卡</v>
       </c>
       <c r="D191" s="5">
         <v>0</v>
       </c>
       <c r="E191" s="5">
+        <v>0</v>
+      </c>
+      <c r="F191" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F191" s="5">
+      <c r="G191" s="5">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="G191" s="5">
-        <v>0</v>
-      </c>
       <c r="H191" s="5">
         <v>0</v>
       </c>
@@ -8819,31 +9587,35 @@
       <c r="L191" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
       <c r="B192" t="s">
         <v>289</v>
       </c>
-      <c r="C192" s="5">
-        <v>0</v>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>星展銀行- 飛行世界卡</v>
       </c>
       <c r="D192" s="5">
         <v>0</v>
       </c>
       <c r="E192" s="5">
+        <v>0</v>
+      </c>
+      <c r="F192" s="5">
         <f>1/18</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F192" s="5">
+      <c r="G192" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G192" s="5">
-        <v>0</v>
-      </c>
       <c r="H192" s="5">
         <v>0</v>
       </c>
@@ -8859,30 +9631,34 @@
       <c r="L192" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>35</v>
       </c>
       <c r="B193" t="s">
         <v>270</v>
       </c>
-      <c r="C193" s="5">
-        <v>0</v>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>美國運通- 國泰航空信用卡</v>
       </c>
       <c r="D193" s="5">
         <v>0</v>
       </c>
       <c r="E193" s="5">
-        <f>1/25</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F193" s="5">
         <f>1/25</f>
         <v>0.04</v>
       </c>
       <c r="G193" s="5">
-        <v>0</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
       <c r="H193" s="5">
         <v>0</v>
@@ -8899,16 +9675,20 @@
       <c r="L193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>35</v>
       </c>
       <c r="B194" t="s">
         <v>286</v>
       </c>
-      <c r="C194">
-        <v>0</v>
+      <c r="C194" t="str">
+        <f t="shared" si="2"/>
+        <v>美國運通- 簽帳金卡</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8937,30 +9717,34 @@
       <c r="L194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>35</v>
       </c>
       <c r="B195" t="s">
         <v>287</v>
       </c>
-      <c r="C195" s="5">
-        <v>0</v>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" si="3">CONCATENATE(A195,"-",B195)</f>
+        <v>美國運通- 新加坡航空天宇信用卡</v>
       </c>
       <c r="D195" s="5">
         <v>0</v>
       </c>
       <c r="E195" s="5">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="F195" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G195" s="5">
-        <v>0</v>
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H195" s="5">
         <v>0</v>
@@ -8977,16 +9761,20 @@
       <c r="L195" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>35</v>
       </c>
       <c r="B196" t="s">
         <v>290</v>
       </c>
-      <c r="C196">
-        <v>0</v>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 長榮航空簽帳金卡</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9015,16 +9803,20 @@
       <c r="L196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>35</v>
       </c>
       <c r="B197" t="s">
         <v>295</v>
       </c>
-      <c r="C197">
-        <v>0</v>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 信用白金卡</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -9053,56 +9845,64 @@
       <c r="L197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>35</v>
       </c>
       <c r="B198" t="s">
         <v>301</v>
       </c>
-      <c r="C198" s="5">
-        <v>0</v>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 長榮航空簽帳白金卡</v>
       </c>
       <c r="D198" s="5">
         <v>0</v>
       </c>
       <c r="E198" s="5">
-        <f>1/25</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F198" s="5">
         <f>1/25</f>
         <v>0.04</v>
       </c>
       <c r="G198" s="5">
-        <v>0</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
       <c r="H198" s="5">
         <v>0</v>
       </c>
       <c r="I198" s="5">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5">
         <v>4</v>
       </c>
-      <c r="J198" s="5">
-        <v>0</v>
-      </c>
       <c r="K198" s="5">
         <v>0</v>
       </c>
       <c r="L198" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>35</v>
       </c>
       <c r="B199" t="s">
         <v>307</v>
       </c>
-      <c r="C199">
-        <v>0</v>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 簽帳卡</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -9131,16 +9931,20 @@
       <c r="L199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>35</v>
       </c>
       <c r="B200" t="s">
         <v>308</v>
       </c>
-      <c r="C200">
-        <v>0</v>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 信用金卡</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -9169,16 +9973,20 @@
       <c r="L200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>310</v>
       </c>
       <c r="B201" t="s">
         <v>309</v>
       </c>
-      <c r="C201">
-        <v>0</v>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>美國運通- 國泰航空尊尚信用卡</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -9207,16 +10015,20 @@
       <c r="L201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>33</v>
       </c>
       <c r="B202" t="s">
         <v>171</v>
       </c>
-      <c r="C202">
-        <v>0</v>
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v>高雄銀行- 高雄going鈦金卡</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -9245,23 +10057,27 @@
       <c r="L202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
       <c r="B203" t="s">
         <v>36</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 現金回饋御璽卡</v>
+      </c>
+      <c r="D203" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D203" s="5">
+      <c r="E203" s="5">
         <v>0.02</v>
       </c>
-      <c r="E203" s="5">
-        <v>0</v>
-      </c>
       <c r="F203" s="5">
         <v>0</v>
       </c>
@@ -9283,16 +10099,20 @@
       <c r="L203" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
       <c r="B204" t="s">
         <v>79</v>
       </c>
-      <c r="C204">
-        <v>0</v>
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 享購鈦金卡</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -9321,16 +10141,20 @@
       <c r="L204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
       <c r="B205" t="s">
         <v>130</v>
       </c>
-      <c r="C205" s="5">
-        <v>0</v>
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 國泰人壽聯名卡</v>
       </c>
       <c r="D205" s="5">
         <v>0</v>
@@ -9357,18 +10181,22 @@
         <v>0</v>
       </c>
       <c r="L205" s="5">
+        <v>0</v>
+      </c>
+      <c r="M205" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
       <c r="B206" t="s">
         <v>133</v>
       </c>
-      <c r="C206">
-        <v>0</v>
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 蝦皮購物聯名卡</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -9397,16 +10225,20 @@
       <c r="L206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
       <c r="B207" t="s">
         <v>149</v>
       </c>
-      <c r="C207">
-        <v>0</v>
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- KOKO COMBO icash聯名卡</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -9430,21 +10262,25 @@
         <v>0</v>
       </c>
       <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
         <v>0.03</v>
       </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
       <c r="B208" t="s">
         <v>151</v>
       </c>
-      <c r="C208">
-        <v>0</v>
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- KOKO icash聯名卡</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -9468,21 +10304,25 @@
         <v>0</v>
       </c>
       <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
         <v>0.03</v>
       </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
       <c r="B209" t="s">
         <v>170</v>
       </c>
-      <c r="C209" s="5">
-        <v>0</v>
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 台塑聯名卡</v>
       </c>
       <c r="D209" s="5">
         <v>0</v>
@@ -9494,14 +10334,14 @@
         <v>0</v>
       </c>
       <c r="G209" s="5">
+        <v>0</v>
+      </c>
+      <c r="H209" s="5">
         <v>1.2</v>
       </c>
-      <c r="H209" s="5">
+      <c r="I209" s="5">
         <v>0.8</v>
       </c>
-      <c r="I209" s="5">
-        <v>0</v>
-      </c>
       <c r="J209" s="5">
         <v>0</v>
       </c>
@@ -9511,16 +10351,20 @@
       <c r="L209" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
       <c r="B210" t="s">
         <v>173</v>
       </c>
-      <c r="C210">
-        <v>0</v>
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- COSTCO聯名卡</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9549,31 +10393,35 @@
       <c r="L210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
       <c r="B211" t="s">
         <v>189</v>
       </c>
-      <c r="C211" s="5">
-        <v>0</v>
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 長榮聯名御璽卡</v>
       </c>
       <c r="D211" s="5">
         <v>0</v>
       </c>
       <c r="E211" s="5">
+        <v>0</v>
+      </c>
+      <c r="F211" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F211" s="5">
+      <c r="G211" s="5">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="G211" s="5">
-        <v>0</v>
-      </c>
       <c r="H211" s="5">
         <v>0</v>
       </c>
@@ -9589,30 +10437,34 @@
       <c r="L211" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
       <c r="B212" t="s">
         <v>203</v>
       </c>
-      <c r="C212" s="5">
-        <v>0</v>
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 亞洲萬里通聯名里享卡</v>
       </c>
       <c r="D212" s="5">
         <v>0</v>
       </c>
       <c r="E212" s="5">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="F212" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G212" s="5">
-        <v>0</v>
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H212" s="5">
         <v>0</v>
@@ -9629,31 +10481,35 @@
       <c r="L212" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
       <c r="B213" t="s">
         <v>220</v>
       </c>
-      <c r="C213" s="5">
-        <v>0</v>
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 亞洲萬里通聯名白金卡</v>
       </c>
       <c r="D213" s="5">
         <v>0</v>
       </c>
       <c r="E213" s="5">
+        <v>0</v>
+      </c>
+      <c r="F213" s="5">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F213" s="5">
+      <c r="G213" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G213" s="5">
-        <v>0</v>
-      </c>
       <c r="H213" s="5">
         <v>0</v>
       </c>
@@ -9669,16 +10525,20 @@
       <c r="L213" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
       <c r="B214" t="s">
         <v>226</v>
       </c>
-      <c r="C214">
-        <v>0</v>
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 遠東SOGO悠遊聯名卡</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9707,16 +10567,20 @@
       <c r="L214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
       <c r="B215" t="s">
         <v>227</v>
       </c>
-      <c r="C215">
-        <v>0</v>
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 長榮聯名極致御璽卡</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9745,31 +10609,35 @@
       <c r="L215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
       <c r="B216" t="s">
         <v>271</v>
       </c>
-      <c r="C216" s="5">
-        <v>0</v>
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 亞洲萬里通聯名鈦商卡</v>
       </c>
       <c r="D216" s="5">
         <v>0</v>
       </c>
       <c r="E216" s="5">
+        <v>0</v>
+      </c>
+      <c r="F216" s="5">
         <f>1/25</f>
         <v>0.04</v>
       </c>
-      <c r="F216" s="5">
+      <c r="G216" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G216" s="5">
-        <v>0</v>
-      </c>
       <c r="H216" s="5">
         <v>0</v>
       </c>
@@ -9785,16 +10653,20 @@
       <c r="L216" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
       <c r="B217" t="s">
         <v>207</v>
       </c>
-      <c r="C217">
-        <v>0</v>
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- eTag 聯名卡</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9823,16 +10695,20 @@
       <c r="L217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
       <c r="B218" t="s">
         <v>69</v>
       </c>
-      <c r="C218">
-        <v>0</v>
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 雙幣卡</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9861,16 +10737,20 @@
       <c r="L218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
       <c r="B219" t="s">
         <v>272</v>
       </c>
-      <c r="C219">
-        <v>0</v>
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 鈦金商務卡</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9899,16 +10779,20 @@
       <c r="L219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
       <c r="B220" t="s">
         <v>273</v>
       </c>
-      <c r="C220">
-        <v>0</v>
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 尊榮御璽卡</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9937,16 +10821,20 @@
       <c r="L220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
       <c r="B221" t="s">
         <v>279</v>
       </c>
-      <c r="C221">
-        <v>0</v>
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 長榮聯名無限卡</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9975,31 +10863,35 @@
       <c r="L221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
       <c r="B222" t="s">
         <v>293</v>
       </c>
-      <c r="C222" s="5">
-        <v>0</v>
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 亞洲萬里通聯名世界卡</v>
       </c>
       <c r="D222" s="5">
         <v>0</v>
       </c>
       <c r="E222" s="5">
+        <v>0</v>
+      </c>
+      <c r="F222" s="5">
         <f>1/22</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="F222" s="5">
+      <c r="G222" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G222" s="5">
-        <v>0</v>
-      </c>
       <c r="H222" s="5">
         <v>0</v>
       </c>
@@ -10015,31 +10907,35 @@
       <c r="L222" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
       <c r="B223" t="s">
         <v>299</v>
       </c>
-      <c r="C223" s="5">
-        <v>0</v>
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 長榮聯名極致無限卡</v>
       </c>
       <c r="D223" s="5">
         <v>0</v>
       </c>
       <c r="E223" s="5">
+        <v>0</v>
+      </c>
+      <c r="F223" s="5">
         <f>1/20</f>
         <v>0.05</v>
       </c>
-      <c r="F223" s="5">
+      <c r="G223" s="5">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="G223" s="5">
-        <v>0</v>
-      </c>
       <c r="H223" s="5">
         <v>0</v>
       </c>
@@ -10055,16 +10951,20 @@
       <c r="L223" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
       <c r="B224" t="s">
         <v>115</v>
       </c>
-      <c r="C224">
-        <v>0</v>
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 世界卡</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10093,16 +10993,20 @@
       <c r="L224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
       <c r="B225" t="s">
         <v>306</v>
       </c>
-      <c r="C225">
-        <v>0</v>
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v>國泰世華- 白金卡</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10131,22 +11035,26 @@
       <c r="L225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
       <c r="B226" t="s">
         <v>39</v>
       </c>
-      <c r="C226" s="5">
-        <v>0.01</v>
+      <c r="C226" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 一卡通聯名卡</v>
       </c>
       <c r="D226" s="5">
         <v>0.01</v>
       </c>
       <c r="E226" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
@@ -10161,24 +11069,28 @@
         <v>0</v>
       </c>
       <c r="J226" s="5">
+        <v>0</v>
+      </c>
+      <c r="K226" s="5">
         <v>0.63</v>
       </c>
-      <c r="K226" s="5">
-        <v>0</v>
-      </c>
       <c r="L226" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
       <c r="B227" t="s">
         <v>66</v>
       </c>
-      <c r="C227">
-        <v>0</v>
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 鈦金商旅卡</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -10207,16 +11119,20 @@
       <c r="L227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
       <c r="B228" t="s">
         <v>128</v>
       </c>
-      <c r="C228" s="5">
-        <v>0</v>
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- Wonderful星璨卡</v>
       </c>
       <c r="D228" s="5">
         <v>0</v>
@@ -10240,21 +11156,25 @@
         <v>0</v>
       </c>
       <c r="K228" s="5">
+        <v>0</v>
+      </c>
+      <c r="L228" s="5">
         <v>0.02</v>
       </c>
-      <c r="L228" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
       <c r="B229" t="s">
         <v>147</v>
       </c>
-      <c r="C229" s="5">
-        <v>0</v>
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- i-Fun愛玩樂卡</v>
       </c>
       <c r="D229" s="5">
         <v>0</v>
@@ -10278,21 +11198,25 @@
         <v>0</v>
       </c>
       <c r="K229" s="5">
+        <v>0</v>
+      </c>
+      <c r="L229" s="5">
         <v>0.01</v>
       </c>
-      <c r="L229" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
       <c r="B230" t="s">
         <v>169</v>
       </c>
-      <c r="C230">
-        <v>0</v>
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 媚儷鈦金卡</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -10321,16 +11245,20 @@
       <c r="L230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
       <c r="B231" t="s">
         <v>214</v>
       </c>
-      <c r="C231">
-        <v>0</v>
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 由你分期卡</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -10359,16 +11287,20 @@
       <c r="L231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
       <c r="B232" t="s">
         <v>215</v>
       </c>
-      <c r="C232">
-        <v>0</v>
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 曼黛瑪璉聯名卡</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -10397,16 +11329,20 @@
       <c r="L232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
       <c r="B233" t="s">
         <v>216</v>
       </c>
-      <c r="C233">
-        <v>0</v>
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 大同寶寶聯名卡</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -10435,16 +11371,20 @@
       <c r="L233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
       <c r="B234" t="s">
         <v>222</v>
       </c>
-      <c r="C234">
-        <v>0</v>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 資生堂SHISEIDO聯名卡</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10473,16 +11413,20 @@
       <c r="L234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
       <c r="B235" t="s">
         <v>238</v>
       </c>
-      <c r="C235">
-        <v>0</v>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- icash聯名卡</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -10511,16 +11455,20 @@
       <c r="L235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236" t="s">
         <v>239</v>
       </c>
-      <c r="C236">
-        <v>0</v>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 菁英御璽卡</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10549,16 +11497,20 @@
       <c r="L236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
       <c r="B237" t="s">
         <v>240</v>
       </c>
-      <c r="C237">
-        <v>0</v>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 尊榮白金卡</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -10587,16 +11539,20 @@
       <c r="L237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
       <c r="B238" t="s">
         <v>137</v>
       </c>
-      <c r="C238">
-        <v>0</v>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 悠遊聯名卡</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -10625,16 +11581,20 @@
       <c r="L238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
       <c r="B239" t="s">
         <v>241</v>
       </c>
-      <c r="C239">
-        <v>0</v>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- 速邁樂聯名卡</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -10663,16 +11623,20 @@
       <c r="L239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
       <c r="B240" t="s">
         <v>242</v>
       </c>
-      <c r="C240">
-        <v>0</v>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行- Living Green綠活卡</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -10701,16 +11665,20 @@
       <c r="L240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B241" t="s">
         <v>330</v>
       </c>
-      <c r="C241" s="5">
-        <v>0</v>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v>第一銀行-Smile速邁樂聯名卡VISA白金卡</v>
       </c>
       <c r="D241" s="5">
         <v>0</v>
@@ -10739,22 +11707,26 @@
       <c r="L241" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>26</v>
       </c>
       <c r="B242" t="s">
         <v>56</v>
       </c>
-      <c r="C242" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v>凱基銀行- 現金回饋鈦金卡</v>
       </c>
       <c r="D242" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E242" s="5">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F242" s="5">
         <v>0</v>
@@ -10777,22 +11749,26 @@
       <c r="L242" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>26</v>
       </c>
       <c r="B243" t="s">
         <v>36</v>
       </c>
-      <c r="C243" s="5">
-        <v>7.0000000000000001E-3</v>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v>凱基銀行- 現金回饋御璽卡</v>
       </c>
       <c r="D243" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E243" s="5">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F243" s="5">
         <v>0</v>
@@ -10815,16 +11791,20 @@
       <c r="L243" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>26</v>
       </c>
       <c r="B244" t="s">
         <v>107</v>
       </c>
-      <c r="C244" s="5">
-        <v>0</v>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v>凱基銀行- 魔fun悠遊御璽卡</v>
       </c>
       <c r="D244" s="5">
         <v>0</v>
@@ -10836,33 +11816,37 @@
         <v>0</v>
       </c>
       <c r="G244" s="5">
+        <v>0</v>
+      </c>
+      <c r="H244" s="5">
         <v>1.3</v>
       </c>
-      <c r="H244" s="5">
+      <c r="I244" s="5">
         <v>1</v>
       </c>
-      <c r="I244" s="5">
-        <v>0</v>
-      </c>
       <c r="J244" s="5">
+        <v>0</v>
+      </c>
+      <c r="K244" s="5">
         <v>0.5</v>
       </c>
-      <c r="K244" s="5">
-        <v>0</v>
-      </c>
       <c r="L244" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
       <c r="B245" t="s">
         <v>109</v>
       </c>
-      <c r="C245" s="5">
-        <v>0</v>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v>凱基銀行- 中壽聯名卡</v>
       </c>
       <c r="D245" s="5">
         <v>0</v>
@@ -10889,18 +11873,22 @@
         <v>0</v>
       </c>
       <c r="L245" s="5">
+        <v>0</v>
+      </c>
+      <c r="M245" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>26</v>
       </c>
       <c r="B246" t="s">
         <v>68</v>
       </c>
-      <c r="C246" s="5">
-        <v>0</v>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v>凱基銀行- 無限卡</v>
       </c>
       <c r="D246" s="5">
         <v>0</v>
@@ -10918,33 +11906,37 @@
         <v>0</v>
       </c>
       <c r="I246" s="5">
+        <v>0</v>
+      </c>
+      <c r="J246" s="5">
         <v>6</v>
       </c>
-      <c r="J246" s="5">
-        <v>0</v>
-      </c>
       <c r="K246" s="5">
         <v>0</v>
       </c>
       <c r="L246" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2</v>
       </c>
       <c r="B247" t="s">
         <v>36</v>
       </c>
-      <c r="C247" s="5">
-        <v>1.8800000000000001E-2</v>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行- 現金回饋御璽卡</v>
       </c>
       <c r="D247" s="5">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="E247" s="5">
-        <v>0</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="F247" s="5">
         <v>0</v>
@@ -10967,16 +11959,20 @@
       <c r="L247" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2</v>
       </c>
       <c r="B248" t="s">
         <v>152</v>
       </c>
-      <c r="C248">
-        <v>0</v>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行- 昇利卡(現金回饋)</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -11005,16 +12001,20 @@
       <c r="L248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2</v>
       </c>
       <c r="B249" t="s">
         <v>175</v>
       </c>
-      <c r="C249">
-        <v>0</v>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行- 優先理財無限卡</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -11043,16 +12043,20 @@
       <c r="L249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2</v>
       </c>
       <c r="B250" t="s">
         <v>196</v>
       </c>
-      <c r="C250">
-        <v>0</v>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行- TheShoppingCard分期卡</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -11081,16 +12085,20 @@
       <c r="L250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251" t="s">
         <v>197</v>
       </c>
-      <c r="C251">
-        <v>0</v>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行- 昇利卡(紅利回饋)</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11119,16 +12127,20 @@
       <c r="L251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B252" t="s">
         <v>331</v>
       </c>
-      <c r="C252" s="5">
-        <v>0</v>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v>渣打銀行-優先理財VISA無限卡</v>
       </c>
       <c r="D252" s="5">
         <v>0</v>
@@ -11146,34 +12158,38 @@
         <v>0</v>
       </c>
       <c r="I252" s="5">
+        <v>0</v>
+      </c>
+      <c r="J252" s="5">
         <v>4</v>
       </c>
-      <c r="J252" s="5">
-        <v>0</v>
-      </c>
       <c r="K252" s="5">
         <v>0</v>
       </c>
       <c r="L252" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253" t="s">
         <v>54</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- 享利樂活Combo卡</v>
+      </c>
+      <c r="D253" s="5">
         <v>0.01</v>
       </c>
-      <c r="D253" s="5">
+      <c r="E253" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E253" s="5">
-        <v>0</v>
-      </c>
       <c r="F253" s="5">
         <v>0</v>
       </c>
@@ -11195,16 +12211,20 @@
       <c r="L253" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>17</v>
       </c>
       <c r="B254" t="s">
         <v>76</v>
       </c>
-      <c r="C254">
-        <v>0</v>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- 旅鑽商務御璽卡</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -11233,22 +12253,26 @@
       <c r="L254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>17</v>
       </c>
       <c r="B255" t="s">
         <v>103</v>
       </c>
-      <c r="C255" s="5">
-        <v>0.01</v>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- 超級現金回饋卡</v>
       </c>
       <c r="D255" s="5">
         <v>0.01</v>
       </c>
       <c r="E255" s="5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F255" s="5">
         <v>0</v>
@@ -11271,16 +12295,20 @@
       <c r="L255" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>17</v>
       </c>
       <c r="B256" t="s">
         <v>158</v>
       </c>
-      <c r="C256">
-        <v>0</v>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- LOVE晶緻悠遊聯名卡－酷愛黑卡</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11309,16 +12337,20 @@
       <c r="L256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>17</v>
       </c>
       <c r="B257" t="s">
         <v>159</v>
       </c>
-      <c r="C257">
-        <v>0</v>
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- 櫃買贏家生活卡</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -11347,16 +12379,20 @@
       <c r="L257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>17</v>
       </c>
       <c r="B258" t="s">
         <v>163</v>
       </c>
-      <c r="C258" s="5">
-        <v>0</v>
+      <c r="C258" t="str">
+        <f t="shared" si="3"/>
+        <v>華南銀行- i網購生活卡</v>
       </c>
       <c r="D258" s="5">
         <v>0</v>
@@ -11380,21 +12416,25 @@
         <v>0</v>
       </c>
       <c r="K258" s="5">
+        <v>0</v>
+      </c>
+      <c r="L258" s="5">
         <v>0.25</v>
       </c>
-      <c r="L258" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>17</v>
       </c>
       <c r="B259" t="s">
         <v>243</v>
       </c>
-      <c r="C259" s="5">
-        <v>0</v>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C317" si="4">CONCATENATE(A259,"-",B259)</f>
+        <v>華南銀行- LOVE晶緻悠遊聯名卡－寵愛紅卡</v>
       </c>
       <c r="D259" s="5">
         <v>0</v>
@@ -11415,24 +12455,28 @@
         <v>0</v>
       </c>
       <c r="J259" s="5">
+        <v>0</v>
+      </c>
+      <c r="K259" s="5">
         <v>0.4</v>
       </c>
-      <c r="K259" s="5">
-        <v>0</v>
-      </c>
       <c r="L259" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>17</v>
       </c>
       <c r="B260" t="s">
         <v>244</v>
       </c>
-      <c r="C260">
-        <v>0</v>
+      <c r="C260" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- 美饌紅利卡</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -11461,16 +12505,20 @@
       <c r="L260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>17</v>
       </c>
       <c r="B261" t="s">
         <v>245</v>
       </c>
-      <c r="C261">
-        <v>0</v>
+      <c r="C261" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- 優活YOHO晶緻卡</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11499,16 +12547,20 @@
       <c r="L261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>17</v>
       </c>
       <c r="B262" t="s">
         <v>246</v>
       </c>
-      <c r="C262">
-        <v>0</v>
+      <c r="C262" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- Scottish House 聯名卡</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -11537,16 +12589,20 @@
       <c r="L262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>17</v>
       </c>
       <c r="B263" t="s">
         <v>247</v>
       </c>
-      <c r="C263">
-        <v>0</v>
+      <c r="C263" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- 大甲媽祖認同卡</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -11575,16 +12631,20 @@
       <c r="L263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>17</v>
       </c>
       <c r="B264" t="s">
         <v>248</v>
       </c>
-      <c r="C264">
-        <v>0</v>
+      <c r="C264" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- OPENPOINT超級點數聯名卡-Hello Kitty款</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -11613,16 +12673,20 @@
       <c r="L264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>17</v>
       </c>
       <c r="B265" t="s">
         <v>249</v>
       </c>
-      <c r="C265">
-        <v>0</v>
+      <c r="C265" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- Combo Life 卡</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11651,16 +12715,20 @@
       <c r="L265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
       <c r="B266" t="s">
         <v>296</v>
       </c>
-      <c r="C266">
-        <v>0</v>
+      <c r="C266" t="str">
+        <f t="shared" si="4"/>
+        <v>華南銀行- The ONE 尊榮無限卡</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -11689,16 +12757,20 @@
       <c r="L266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>34</v>
       </c>
       <c r="B267" t="s">
         <v>209</v>
       </c>
-      <c r="C267">
-        <v>0</v>
+      <c r="C267" t="str">
+        <f t="shared" si="4"/>
+        <v>華泰銀行- VISA旗艦卡</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -11727,23 +12799,27 @@
       <c r="L267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>18</v>
       </c>
       <c r="B268" t="s">
         <v>55</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" t="str">
+        <f t="shared" si="4"/>
+        <v>陽信銀行- 曜晶卡</v>
+      </c>
+      <c r="D268" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D268" s="5">
+      <c r="E268" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E268" s="5">
-        <v>0</v>
-      </c>
       <c r="F268" s="5">
         <v>0</v>
       </c>
@@ -11765,16 +12841,20 @@
       <c r="L268" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>18</v>
       </c>
       <c r="B269" t="s">
         <v>100</v>
       </c>
-      <c r="C269">
-        <v>0</v>
+      <c r="C269" t="str">
+        <f t="shared" si="4"/>
+        <v>陽信銀行- 一卡通聯名鈦金卡</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -11803,16 +12883,20 @@
       <c r="L269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>18</v>
       </c>
       <c r="B270" t="s">
         <v>256</v>
       </c>
-      <c r="C270">
-        <v>0</v>
+      <c r="C270" t="str">
+        <f t="shared" si="4"/>
+        <v>陽信銀行- 享利白金卡</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11841,30 +12925,34 @@
       <c r="L270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>13</v>
       </c>
       <c r="B271" t="s">
         <v>49</v>
       </c>
-      <c r="C271" s="5">
-        <v>0</v>
+      <c r="C271" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 日本航空聯名卡</v>
       </c>
       <c r="D271" s="5">
         <v>0</v>
       </c>
       <c r="E271" s="5">
-        <f>1/50</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F271" s="5">
         <f>1/50</f>
         <v>0.02</v>
       </c>
       <c r="G271" s="5">
-        <v>0</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="H271" s="5">
         <v>0</v>
@@ -11881,16 +12969,20 @@
       <c r="L271" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
       <c r="B272" t="s">
         <v>78</v>
       </c>
-      <c r="C272" s="5">
-        <v>0</v>
+      <c r="C272" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 新光三越聯名卡</v>
       </c>
       <c r="D272" s="5">
         <v>0</v>
@@ -11911,24 +13003,28 @@
         <v>0</v>
       </c>
       <c r="J272" s="5">
+        <v>0</v>
+      </c>
+      <c r="K272" s="5">
         <v>0.4</v>
       </c>
-      <c r="K272" s="5">
-        <v>0</v>
-      </c>
       <c r="L272" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>13</v>
       </c>
       <c r="B273" t="s">
         <v>82</v>
       </c>
-      <c r="C273">
-        <v>0</v>
+      <c r="C273" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 寰宇現金回饋卡</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -11957,16 +13053,20 @@
       <c r="L273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>13</v>
       </c>
       <c r="B274" t="s">
         <v>143</v>
       </c>
-      <c r="C274" s="5">
-        <v>0</v>
+      <c r="C274" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 魔法少女一卡通鈦金卡</v>
       </c>
       <c r="D274" s="5">
         <v>0</v>
@@ -11990,21 +13090,25 @@
         <v>0</v>
       </c>
       <c r="K274" s="5">
+        <v>0</v>
+      </c>
+      <c r="L274" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L274" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>13</v>
       </c>
       <c r="B275" t="s">
         <v>137</v>
       </c>
-      <c r="C275">
-        <v>0</v>
+      <c r="C275" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 悠遊聯名卡</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -12033,16 +13137,20 @@
       <c r="L275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>13</v>
       </c>
       <c r="B276" t="s">
         <v>192</v>
       </c>
-      <c r="C276">
-        <v>0</v>
+      <c r="C276" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 新光加油卡</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -12071,16 +13179,20 @@
       <c r="L276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>13</v>
       </c>
       <c r="B277" t="s">
         <v>193</v>
       </c>
-      <c r="C277">
-        <v>0</v>
+      <c r="C277" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 義大世界聯名卡</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -12109,16 +13221,20 @@
       <c r="L277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>13</v>
       </c>
       <c r="B278" t="s">
         <v>194</v>
       </c>
-      <c r="C278">
-        <v>0</v>
+      <c r="C278" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- Lamigo信用卡</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -12147,16 +13263,20 @@
       <c r="L278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>13</v>
       </c>
       <c r="B279" t="s">
         <v>202</v>
       </c>
-      <c r="C279">
-        <v>0</v>
+      <c r="C279" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 分期7卡</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -12185,16 +13305,20 @@
       <c r="L279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>13</v>
       </c>
       <c r="B280" t="s">
         <v>219</v>
       </c>
-      <c r="C280">
-        <v>0</v>
+      <c r="C280" t="str">
+        <f t="shared" si="4"/>
+        <v>新光銀行- 美麗華百樂卡</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -12223,23 +13347,27 @@
       <c r="L280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
       <c r="B281" t="s">
         <v>36</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" t="str">
+        <f t="shared" si="4"/>
+        <v>滙豐銀行- 現金回饋御璽卡</v>
+      </c>
+      <c r="D281" s="5">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="D281" s="5">
+      <c r="E281" s="5">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="E281" s="5">
-        <v>0</v>
-      </c>
       <c r="F281" s="5">
         <v>0</v>
       </c>
@@ -12261,56 +13389,64 @@
       <c r="L281" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B282" t="s">
         <v>341</v>
       </c>
-      <c r="C282" s="5">
-        <v>0</v>
+      <c r="C282" t="str">
+        <f t="shared" si="4"/>
+        <v>滙豐銀行-中華航空聯名卡</v>
       </c>
       <c r="D282" s="5">
         <v>0</v>
       </c>
       <c r="E282" s="5">
+        <v>0</v>
+      </c>
+      <c r="F282" s="5">
         <f>1/25</f>
         <v>0.04</v>
       </c>
-      <c r="F282" s="5">
+      <c r="G282" s="5">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="G282" s="5">
-        <v>0</v>
-      </c>
       <c r="H282" s="5">
         <v>0</v>
       </c>
       <c r="I282" s="5">
+        <v>0</v>
+      </c>
+      <c r="J282" s="5">
         <v>4</v>
       </c>
-      <c r="J282" s="5">
-        <v>0</v>
-      </c>
       <c r="K282" s="5">
         <v>0</v>
       </c>
       <c r="L282" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>3</v>
       </c>
       <c r="B283" t="s">
         <v>37</v>
       </c>
-      <c r="C283">
-        <v>0</v>
+      <c r="C283" t="str">
+        <f t="shared" si="4"/>
+        <v>彰化銀行- My樂現金回饋卡</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -12339,16 +13475,20 @@
       <c r="L283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>3</v>
       </c>
       <c r="B284" t="s">
         <v>92</v>
       </c>
-      <c r="C284">
-        <v>0</v>
+      <c r="C284" t="str">
+        <f t="shared" si="4"/>
+        <v>彰化銀行- 商旅御璽卡</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -12377,16 +13517,20 @@
       <c r="L284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3</v>
       </c>
       <c r="B285" t="s">
         <v>97</v>
       </c>
-      <c r="C285">
-        <v>0</v>
+      <c r="C285" t="str">
+        <f t="shared" si="4"/>
+        <v>彰化銀行- JCB悠遊晶緻卡</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -12415,16 +13559,20 @@
       <c r="L285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3</v>
       </c>
       <c r="B286" t="s">
         <v>150</v>
       </c>
-      <c r="C286">
-        <v>0</v>
+      <c r="C286" t="str">
+        <f t="shared" si="4"/>
+        <v>彰化銀行- VISA一卡通御璽卡</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -12453,23 +13601,27 @@
       <c r="L286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B287" t="s">
         <v>342</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" t="str">
+        <f t="shared" si="4"/>
+        <v>彰化銀行-VISA無限卡</v>
+      </c>
+      <c r="D287" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D287" s="5">
+      <c r="E287" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E287" s="5">
-        <v>0</v>
-      </c>
       <c r="F287" s="5">
         <v>0</v>
       </c>
@@ -12480,27 +13632,31 @@
         <v>0</v>
       </c>
       <c r="I287" s="5">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5">
         <v>6</v>
       </c>
-      <c r="J287" s="5">
-        <v>0</v>
-      </c>
       <c r="K287" s="5">
         <v>0</v>
       </c>
       <c r="L287" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>23</v>
       </c>
       <c r="B288" t="s">
         <v>72</v>
       </c>
-      <c r="C288">
-        <v>0</v>
+      <c r="C288" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣企銀- 故宮之友認同卡</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -12529,23 +13685,27 @@
       <c r="L288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>23</v>
       </c>
       <c r="B289" t="s">
         <v>66</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣企銀- 鈦金商旅卡</v>
+      </c>
+      <c r="D289" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D289" s="5">
+      <c r="E289" s="5">
         <v>0.02</v>
       </c>
-      <c r="E289" s="5">
-        <v>0</v>
-      </c>
       <c r="F289" s="5">
         <v>0</v>
       </c>
@@ -12567,16 +13727,20 @@
       <c r="L289" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>23</v>
       </c>
       <c r="B290" t="s">
         <v>98</v>
       </c>
-      <c r="C290">
-        <v>0</v>
+      <c r="C290" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣企銀- 北港朝天宮媽祖認同卡</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12605,16 +13769,20 @@
       <c r="L290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>23</v>
       </c>
       <c r="B291" t="s">
         <v>137</v>
       </c>
-      <c r="C291">
-        <v>0</v>
+      <c r="C291" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣企銀- 悠遊聯名卡</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12643,16 +13811,20 @@
       <c r="L291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>28</v>
       </c>
       <c r="B292" t="s">
         <v>66</v>
       </c>
-      <c r="C292">
-        <v>0</v>
+      <c r="C292" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣銀行- 鈦金商旅卡</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -12681,16 +13853,20 @@
       <c r="L292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>28</v>
       </c>
       <c r="B293" t="s">
         <v>210</v>
       </c>
-      <c r="C293">
-        <v>0</v>
+      <c r="C293" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣銀行- 金采白金卡</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -12719,16 +13895,20 @@
       <c r="L293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B294" t="s">
         <v>343</v>
       </c>
-      <c r="C294" s="5">
-        <v>0</v>
+      <c r="C294" t="str">
+        <f t="shared" si="4"/>
+        <v>臺灣銀行-金鑽商旅白金卡</v>
       </c>
       <c r="D294" s="5">
         <v>0</v>
@@ -12755,18 +13935,22 @@
         <v>0</v>
       </c>
       <c r="L294" s="5">
+        <v>0</v>
+      </c>
+      <c r="M294" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
       <c r="B295" t="s">
         <v>40</v>
       </c>
-      <c r="C295">
-        <v>0</v>
+      <c r="C295" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- 快樂信用卡</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -12795,16 +13979,20 @@
       <c r="L295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
       <c r="B296" t="s">
         <v>43</v>
       </c>
-      <c r="C296">
-        <v>0</v>
+      <c r="C296" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- Bankee信用卡</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -12833,16 +14021,20 @@
       <c r="L296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
       <c r="B297" t="s">
         <v>206</v>
       </c>
-      <c r="C297">
-        <v>0</v>
+      <c r="C297" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- New Century MC卡</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12871,16 +14063,20 @@
       <c r="L297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
       <c r="B298" t="s">
         <v>207</v>
       </c>
-      <c r="C298">
-        <v>0</v>
+      <c r="C298" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- eTag 聯名卡</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -12909,16 +14105,20 @@
       <c r="L298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
       <c r="B299" t="s">
         <v>208</v>
       </c>
-      <c r="C299">
-        <v>0</v>
+      <c r="C299" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- 華信航空聯名卡</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -12947,16 +14147,20 @@
       <c r="L299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
       <c r="B300" t="s">
         <v>237</v>
       </c>
-      <c r="C300">
-        <v>0</v>
+      <c r="C300" t="str">
+        <f t="shared" si="4"/>
+        <v>遠東商銀- C'est Moi我的卡</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -12985,16 +14189,20 @@
       <c r="L300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
       <c r="B301" t="s">
         <v>41</v>
       </c>
-      <c r="C301">
-        <v>0</v>
+      <c r="C301" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 賴點一卡通御璽卡</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -13023,16 +14231,20 @@
       <c r="L301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
       <c r="B302" t="s">
         <v>83</v>
       </c>
-      <c r="C302" s="5">
-        <v>0</v>
+      <c r="C302" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 幸福御守御璽卡</v>
       </c>
       <c r="D302" s="5">
         <v>0</v>
@@ -13059,18 +14271,22 @@
         <v>0</v>
       </c>
       <c r="L302" s="5">
+        <v>0</v>
+      </c>
+      <c r="M302" s="5">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
       <c r="B303" t="s">
         <v>118</v>
       </c>
-      <c r="C303">
-        <v>0</v>
+      <c r="C303" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 理財型白金卡</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -13099,16 +14315,20 @@
       <c r="L303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
       <c r="B304" t="s">
         <v>127</v>
       </c>
-      <c r="C304">
-        <v>0</v>
+      <c r="C304" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 樂活悠遊御璽卡</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -13137,16 +14357,20 @@
       <c r="L304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
       <c r="B305" t="s">
         <v>131</v>
       </c>
-      <c r="C305">
-        <v>0</v>
+      <c r="C305" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 農金一卡通聯名卡</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -13175,16 +14399,20 @@
       <c r="L305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
       <c r="B306" t="s">
         <v>132</v>
       </c>
-      <c r="C306">
-        <v>0</v>
+      <c r="C306" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- F1 加油卡</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -13213,16 +14441,20 @@
       <c r="L306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>7</v>
       </c>
       <c r="B307" t="s">
         <v>148</v>
       </c>
-      <c r="C307">
-        <v>0</v>
+      <c r="C307" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 順發聯名卡</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -13251,16 +14483,20 @@
       <c r="L307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
       <c r="B308" t="s">
         <v>165</v>
       </c>
-      <c r="C308" s="5">
-        <v>0</v>
+      <c r="C308" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 微風聯名卡</v>
       </c>
       <c r="D308" s="5">
         <v>0</v>
@@ -13281,24 +14517,28 @@
         <v>0</v>
       </c>
       <c r="J308" s="5">
+        <v>0</v>
+      </c>
+      <c r="K308" s="5">
         <v>0.4</v>
       </c>
-      <c r="K308" s="5">
-        <v>0</v>
-      </c>
       <c r="L308" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
       <c r="B309" t="s">
         <v>231</v>
       </c>
-      <c r="C309" s="5">
-        <v>0</v>
+      <c r="C309" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 全國加油聯名卡</v>
       </c>
       <c r="D309" s="5">
         <v>0</v>
@@ -13310,14 +14550,14 @@
         <v>0</v>
       </c>
       <c r="G309" s="5">
+        <v>0</v>
+      </c>
+      <c r="H309" s="5">
         <v>1.3</v>
       </c>
-      <c r="H309" s="5">
+      <c r="I309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="5">
-        <v>0</v>
-      </c>
       <c r="J309" s="5">
         <v>0</v>
       </c>
@@ -13327,16 +14567,20 @@
       <c r="L309" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
       <c r="B310" t="s">
         <v>232</v>
       </c>
-      <c r="C310">
-        <v>0</v>
+      <c r="C310" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- Tiger City悠遊白金卡</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -13365,16 +14609,20 @@
       <c r="L310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
       <c r="B311" t="s">
         <v>233</v>
       </c>
-      <c r="C311">
-        <v>0</v>
+      <c r="C311" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 聯邦旅遊卡</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -13403,23 +14651,27 @@
       <c r="L311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
       <c r="B312" t="s">
         <v>234</v>
       </c>
-      <c r="C312" s="5">
-        <v>0</v>
+      <c r="C312" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 紅利卡</v>
       </c>
       <c r="D312" s="5">
+        <v>0</v>
+      </c>
+      <c r="E312" s="5">
         <v>0.02</v>
       </c>
-      <c r="E312" s="5">
-        <v>0</v>
-      </c>
       <c r="F312" s="5">
         <v>0</v>
       </c>
@@ -13441,16 +14693,20 @@
       <c r="L312" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>7</v>
       </c>
       <c r="B313" t="s">
         <v>235</v>
       </c>
-      <c r="C313">
-        <v>0</v>
+      <c r="C313" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 泰航聯名卡</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -13479,16 +14735,20 @@
       <c r="L313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
       <c r="B314" t="s">
         <v>236</v>
       </c>
-      <c r="C314">
-        <v>0</v>
+      <c r="C314" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 凱撒飯店聯名卡</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -13517,16 +14777,20 @@
       <c r="L314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>7</v>
       </c>
       <c r="B315" t="s">
         <v>275</v>
       </c>
-      <c r="C315">
-        <v>0</v>
+      <c r="C315" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 美華泰聯名卡</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -13555,16 +14819,20 @@
       <c r="L315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" ht="9.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>7</v>
       </c>
       <c r="B316" t="s">
         <v>294</v>
       </c>
-      <c r="C316">
-        <v>0</v>
+      <c r="C316" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行- 大立無限卡</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -13593,16 +14861,20 @@
       <c r="L316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B317" t="s">
         <v>344</v>
       </c>
-      <c r="C317" s="5">
-        <v>0</v>
+      <c r="C317" t="str">
+        <f t="shared" si="4"/>
+        <v>聯邦銀行-聯邦銀行世界卡</v>
       </c>
       <c r="D317" s="5">
         <v>0</v>
@@ -13620,15 +14892,18 @@
         <v>0</v>
       </c>
       <c r="I317" s="5">
+        <v>0</v>
+      </c>
+      <c r="J317" s="5">
         <v>4</v>
       </c>
-      <c r="J317" s="5">
-        <v>0</v>
-      </c>
       <c r="K317" s="5">
         <v>0</v>
       </c>
       <c r="L317" s="5">
+        <v>0</v>
+      </c>
+      <c r="M317" s="5">
         <v>0</v>
       </c>
     </row>
